--- a/2016년 수강료 6월/마술 수강료.xlsx
+++ b/2016년 수강료 6월/마술 수강료.xlsx
@@ -266,39 +266,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,15 +595,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="9.375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1504,7 +1501,7 @@
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1528,6 +1525,7 @@
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="7" t="s">
@@ -1549,7 +1547,7 @@
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1573,12 +1571,14 @@
         <f t="shared" si="0"/>
         <v>21600</v>
       </c>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7">
       <c r="C45" s="2" t="s">
